--- a/ope.ed.gov/2010/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2010.xlsx
+++ b/ope.ed.gov/2010/criminal-offenses-public-property-virginia-colleges-and-universities-crime-2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_Public_Proper" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-public-proper" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -1633,52 +1630,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2010.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>401.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1689,13 +1728,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
         <v>401.0</v>
@@ -1736,13 +1775,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>401.0</v>
@@ -1780,19 +1819,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>401.0</v>
+        <v>1040.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1830,13 +1869,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
         <v>1040.0</v>
@@ -1874,19 +1913,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>1040.0</v>
+        <v>2976.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1924,13 +1963,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
         <v>2976.0</v>
@@ -1971,13 +2010,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
         <v>2976.0</v>
@@ -2018,13 +2057,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
         <v>2976.0</v>
@@ -2065,13 +2104,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>2976.0</v>
@@ -2112,13 +2151,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>2976.0</v>
@@ -2159,13 +2198,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
         <v>2976.0</v>
@@ -2206,13 +2245,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
         <v>2976.0</v>
@@ -2253,13 +2292,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
         <v>2976.0</v>
@@ -2297,19 +2336,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>2976.0</v>
+        <v>313.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2344,19 +2383,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>313.0</v>
+        <v>1277.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2391,19 +2430,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>1277.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2438,19 +2477,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>945.0</v>
+        <v>1816.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2488,13 +2527,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
         <v>1816.0</v>
@@ -2512,10 +2551,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L20">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M20">
         <v>0.0</v>
@@ -2535,13 +2574,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
         <v>1816.0</v>
@@ -2559,10 +2598,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K21">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L21">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M21">
         <v>0.0</v>
@@ -2582,13 +2621,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
         <v>1816.0</v>
@@ -2606,10 +2645,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K22">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="L22">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M22">
         <v>0.0</v>
@@ -2626,19 +2665,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>1816.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2653,10 +2692,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K23">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L23">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M23">
         <v>0.0</v>
@@ -2673,19 +2712,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>22.0</v>
+        <v>320.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2700,7 +2739,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K24">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L24">
         <v>0.0</v>
@@ -2709,7 +2748,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N24">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O24">
         <v>0.0</v>
@@ -2720,19 +2759,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>320.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2747,7 +2786,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K25">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L25">
         <v>0.0</v>
@@ -2756,7 +2795,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N25">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O25">
         <v>0.0</v>
@@ -2767,19 +2806,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>189.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2814,19 +2853,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>101.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2850,7 +2889,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O27">
         <v>0.0</v>
@@ -2861,19 +2900,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>94.0</v>
+        <v>4983.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2897,7 +2936,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O28">
         <v>0.0</v>
@@ -2908,19 +2947,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>4983.0</v>
+        <v>696.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2958,13 +2997,13 @@
         <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
         <v>696.0</v>
@@ -2982,7 +3021,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K30">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L30">
         <v>0.0</v>
@@ -2991,7 +3030,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N30">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O30">
         <v>0.0</v>
@@ -3005,13 +3044,13 @@
         <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
         <v>696.0</v>
@@ -3029,7 +3068,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K31">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L31">
         <v>0.0</v>
@@ -3038,7 +3077,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N31">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O31">
         <v>0.0</v>
@@ -3049,19 +3088,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>696.0</v>
+        <v>258.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -3096,19 +3135,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>258.0</v>
+        <v>32.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -3143,19 +3182,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>32.0</v>
+        <v>1688.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -3190,19 +3229,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>1688.0</v>
+        <v>921.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -3237,19 +3276,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>921.0</v>
+        <v>835.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -3284,19 +3323,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>835.0</v>
+        <v>191.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -3314,7 +3353,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L37">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M37">
         <v>0.0</v>
@@ -3331,19 +3370,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>191.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -3361,7 +3400,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L38">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M38">
         <v>0.0</v>
@@ -3378,19 +3417,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>84.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -3408,13 +3447,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M39">
         <v>0.0</v>
       </c>
       <c s="1" r="N39">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O39">
         <v>0.0</v>
@@ -3425,19 +3464,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>51.0</v>
+        <v>5466.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -3455,13 +3494,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M40">
         <v>0.0</v>
       </c>
       <c s="1" r="N40">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O40">
         <v>0.0</v>
@@ -3475,13 +3514,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>5466.0</v>
@@ -3522,13 +3561,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>5466.0</v>
@@ -3569,13 +3608,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>5466.0</v>
@@ -3616,13 +3655,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>5466.0</v>
@@ -3660,19 +3699,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>5466.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3707,19 +3746,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>17.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3743,7 +3782,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N46">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O46">
         <v>0.0</v>
@@ -3754,19 +3793,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>195.0</v>
+        <v>229.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3790,7 +3829,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N47">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O47">
         <v>0.0</v>
@@ -3801,19 +3840,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
-        <v>229.0</v>
+        <v>174.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3837,7 +3876,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N48">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O48">
         <v>0.0</v>
@@ -3848,19 +3887,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
-        <v>174.0</v>
+        <v>181.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3884,7 +3923,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O49">
         <v>0.0</v>
@@ -3895,19 +3934,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
-        <v>181.0</v>
+        <v>102.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3922,7 +3961,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K50">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L50">
         <v>0.0</v>
@@ -3931,7 +3970,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N50">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O50">
         <v>0.0</v>
@@ -3942,19 +3981,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>102.0</v>
+        <v>1046.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3969,7 +4008,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K51">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L51">
         <v>0.0</v>
@@ -3978,7 +4017,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N51">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O51">
         <v>0.0</v>
@@ -3989,19 +4028,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>1046.0</v>
+        <v>227.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -4036,19 +4075,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>227.0</v>
+        <v>4916.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -4057,22 +4096,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J53">
         <v>0.0</v>
       </c>
       <c s="1" r="K53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M53">
         <v>0.0</v>
       </c>
       <c s="1" r="N53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O53">
         <v>0.0</v>
@@ -4083,19 +4122,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B54">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>4916.0</v>
+        <v>8000.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -4104,22 +4143,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I54">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J54">
         <v>0.0</v>
       </c>
       <c s="1" r="K54">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L54">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M54">
         <v>0.0</v>
       </c>
       <c s="1" r="N54">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O54">
         <v>0.0</v>
@@ -4133,13 +4172,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
         <v>8000.0</v>
@@ -4166,7 +4205,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O55">
         <v>0.0</v>
@@ -4180,13 +4219,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
         <v>8000.0</v>
@@ -4227,13 +4266,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
         <v>8000.0</v>
@@ -4271,19 +4310,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B58">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>8000.0</v>
+        <v>310.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -4318,19 +4357,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B59">
-        <v>455983.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>310.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -4365,19 +4404,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B60">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
-        <v>10.0</v>
+        <v>1521.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -4412,19 +4451,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B61">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>1521.0</v>
+        <v>4534.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -4459,19 +4498,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B62">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>4534.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -4506,19 +4545,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B63">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>101.0</v>
+        <v>1868.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -4536,7 +4575,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L63">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M63">
         <v>0.0</v>
@@ -4556,13 +4595,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
         <v>1868.0</v>
@@ -4583,7 +4622,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L64">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M64">
         <v>0.0</v>
@@ -4603,13 +4642,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
         <v>1868.0</v>
@@ -4636,7 +4675,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N65">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O65">
         <v>0.0</v>
@@ -4647,19 +4686,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B66">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>1868.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -4683,7 +4722,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N66">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O66">
         <v>0.0</v>
@@ -4694,19 +4733,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B67">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
-        <v>27.0</v>
+        <v>1537.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -4741,19 +4780,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B68">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>1537.0</v>
+        <v>1052.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -4788,19 +4827,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>1052.0</v>
+        <v>790.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -4835,19 +4874,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B70">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>790.0</v>
+        <v>12764.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -4885,13 +4924,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
         <v>12764.0</v>
@@ -4932,13 +4971,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
         <v>12764.0</v>
@@ -4979,13 +5018,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
         <v>12764.0</v>
@@ -5026,13 +5065,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
         <v>12764.0</v>
@@ -5073,13 +5112,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
         <v>12764.0</v>
@@ -5120,13 +5159,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
         <v>12764.0</v>
@@ -5167,13 +5206,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
         <v>12764.0</v>
@@ -5214,13 +5253,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
         <v>12764.0</v>
@@ -5261,13 +5300,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
         <v>12764.0</v>
@@ -5308,13 +5347,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D80">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F80">
         <v>12764.0</v>
@@ -5355,13 +5394,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D81">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F81">
         <v>12764.0</v>
@@ -5402,13 +5441,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D82">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F82">
         <v>12764.0</v>
@@ -5449,13 +5488,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D83">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F83">
         <v>12764.0</v>
@@ -5496,13 +5535,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D84">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F84">
         <v>12764.0</v>
@@ -5540,19 +5579,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B85">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D85">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F85">
-        <v>12764.0</v>
+        <v>759.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -5587,19 +5626,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B86">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F86">
-        <v>759.0</v>
+        <v>980.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -5634,19 +5673,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B87">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F87">
-        <v>980.0</v>
+        <v>125.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -5681,19 +5720,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B88">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F88">
-        <v>125.0</v>
+        <v>148.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -5708,10 +5747,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K88">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L88">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M88">
         <v>0.0</v>
@@ -5728,19 +5767,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B89">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F89">
-        <v>148.0</v>
+        <v>757.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -5755,10 +5794,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K89">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L89">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M89">
         <v>0.0</v>
@@ -5775,19 +5814,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B90">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F90">
-        <v>757.0</v>
+        <v>916.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -5822,19 +5861,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B91">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F91">
-        <v>916.0</v>
+        <v>475.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -5869,19 +5908,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B92">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D92">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F92">
-        <v>475.0</v>
+        <v>578.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -5916,19 +5955,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F93">
-        <v>578.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -5963,19 +6002,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F94">
-        <v>1484.0</v>
+        <v>465.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -6010,19 +6049,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B95">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F95">
-        <v>465.0</v>
+        <v>447.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -6057,19 +6096,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B96">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F96">
-        <v>447.0</v>
+        <v>32562.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -6084,7 +6123,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K96">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L96">
         <v>0.0</v>
@@ -6093,7 +6132,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N96">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="O96">
         <v>0.0</v>
@@ -6104,19 +6143,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F97">
-        <v>32562.0</v>
+        <v>7582.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -6131,7 +6170,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K97">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L97">
         <v>0.0</v>
@@ -6140,7 +6179,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N97">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O97">
         <v>0.0</v>
@@ -6154,13 +6193,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D98">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F98">
         <v>7582.0</v>
@@ -6201,13 +6240,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D99">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F99">
         <v>7582.0</v>
@@ -6245,19 +6284,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D100">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F100">
-        <v>7582.0</v>
+        <v>276.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -6292,19 +6331,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B101">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F101">
-        <v>276.0</v>
+        <v>263.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -6339,19 +6378,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B102">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F102">
-        <v>263.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -6386,19 +6425,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F103">
-        <v>1058.0</v>
+        <v>5254.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -6416,7 +6455,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L103">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M103">
         <v>0.0</v>
@@ -6436,13 +6475,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F104">
         <v>5254.0</v>
@@ -6463,7 +6502,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L104">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M104">
         <v>0.0</v>
@@ -6480,19 +6519,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F105">
-        <v>5254.0</v>
+        <v>85.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -6527,19 +6566,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B106">
-        <v>431266.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F106">
-        <v>85.0</v>
+        <v>343.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -6557,7 +6596,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L106">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M106">
         <v>0.0</v>
@@ -6574,19 +6613,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B107">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F107">
-        <v>343.0</v>
+        <v>1024.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -6604,7 +6643,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L107">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M107">
         <v>0.0</v>
@@ -6621,19 +6660,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B108">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F108">
-        <v>1024.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -6648,7 +6687,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K108">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L108">
         <v>0.0</v>
@@ -6668,19 +6707,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B109">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F109">
-        <v>73.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
@@ -6695,7 +6734,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K109">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L109">
         <v>0.0</v>
@@ -6715,19 +6754,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B110">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F110">
-        <v>23.0</v>
+        <v>715.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
@@ -6762,19 +6801,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B111">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D111">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F111">
-        <v>715.0</v>
+        <v>1235.0</v>
       </c>
       <c s="1" r="G111">
         <v>0.0</v>
@@ -6809,19 +6848,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B112">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D112">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F112">
-        <v>1235.0</v>
+        <v>866.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -6856,19 +6895,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B113">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F113">
-        <v>866.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -6903,19 +6942,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B114">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F114">
-        <v>175.0</v>
+        <v>976.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -6950,19 +6989,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B115">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F115">
-        <v>976.0</v>
+        <v>12629.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -7000,13 +7039,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F116">
         <v>12629.0</v>
@@ -7047,13 +7086,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D117">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F117">
         <v>12629.0</v>
@@ -7091,19 +7130,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D118">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F118">
-        <v>12629.0</v>
+        <v>19434.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -7141,13 +7180,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D119">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F119">
         <v>19434.0</v>
@@ -7159,7 +7198,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I119">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J119">
         <v>0.0</v>
@@ -7188,13 +7227,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D120">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F120">
         <v>19434.0</v>
@@ -7206,7 +7245,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I120">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J120">
         <v>0.0</v>
@@ -7235,13 +7274,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D121">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F121">
         <v>19434.0</v>
@@ -7279,19 +7318,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B122">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D122">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F122">
-        <v>19434.0</v>
+        <v>1032.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -7326,19 +7365,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B123">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F123">
-        <v>1032.0</v>
+        <v>10518.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -7376,13 +7415,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D124">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F124">
         <v>10518.0</v>
@@ -7423,13 +7462,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D125">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F125">
         <v>10518.0</v>
@@ -7470,13 +7509,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D126">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F126">
         <v>10518.0</v>
@@ -7514,19 +7553,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B127">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D127">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F127">
-        <v>10518.0</v>
+        <v>56625.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -7561,19 +7600,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F128">
-        <v>56625.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -7608,19 +7647,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B129">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F129">
-        <v>4831.0</v>
+        <v>7005.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -7658,13 +7697,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D130">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F130">
         <v>7005.0</v>
@@ -7705,13 +7744,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D131">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F131">
         <v>7005.0</v>
@@ -7749,19 +7788,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F132">
-        <v>7005.0</v>
+        <v>2643.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -7785,7 +7824,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O132">
         <v>0.0</v>
@@ -7796,19 +7835,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F133">
-        <v>2643.0</v>
+        <v>227.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -7832,7 +7871,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O133">
         <v>0.0</v>
@@ -7843,19 +7882,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F134">
-        <v>227.0</v>
+        <v>1849.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -7890,19 +7929,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F135">
-        <v>1849.0</v>
+        <v>3572.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -7926,7 +7965,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N135">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O135">
         <v>0.0</v>
@@ -7937,19 +7976,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B136">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F136">
-        <v>3572.0</v>
+        <v>954.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
@@ -7973,7 +8012,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N136">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O136">
         <v>0.0</v>
@@ -7987,13 +8026,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D137">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F137">
         <v>954.0</v>
@@ -8034,13 +8073,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D138">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F138">
         <v>954.0</v>
@@ -8078,19 +8117,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B139">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D139">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F139">
-        <v>954.0</v>
+        <v>464.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -8125,19 +8164,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F140">
-        <v>464.0</v>
+        <v>3404.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -8155,7 +8194,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L140">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="M140">
         <v>0.0</v>
@@ -8172,19 +8211,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F141">
-        <v>3404.0</v>
+        <v>5178.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -8202,7 +8241,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L141">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M141">
         <v>0.0</v>
@@ -8219,19 +8258,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F142">
-        <v>5178.0</v>
+        <v>6964.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -8266,19 +8305,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B143">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F143">
-        <v>6964.0</v>
+        <v>48996.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -8287,7 +8326,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I143">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J143">
         <v>0.0</v>
@@ -8316,13 +8355,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D144">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F144">
         <v>48996.0</v>
@@ -8334,7 +8373,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I144">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J144">
         <v>0.0</v>
@@ -8349,7 +8388,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N144">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O144">
         <v>0.0</v>
@@ -8363,13 +8402,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D145">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F145">
         <v>48996.0</v>
@@ -8381,7 +8420,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I145">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J145">
         <v>0.0</v>
@@ -8396,7 +8435,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N145">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O145">
         <v>0.0</v>
@@ -8410,13 +8449,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D146">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F146">
         <v>48996.0</v>
@@ -8457,13 +8496,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D147">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F147">
         <v>48996.0</v>
@@ -8504,13 +8543,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D148">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F148">
         <v>48996.0</v>
@@ -8548,43 +8587,43 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D149">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="E149">
+        <v>310</v>
+      </c>
+      <c s="1" r="F149">
+        <v>24466.0</v>
+      </c>
+      <c s="1" r="G149">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H149">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I149">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J149">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K149">
         <v>6.0</v>
       </c>
-      <c t="s" s="1" r="E149">
-        <v>309</v>
-      </c>
-      <c s="1" r="F149">
-        <v>48996.0</v>
-      </c>
-      <c s="1" r="G149">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H149">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I149">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J149">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K149">
-        <v>0.0</v>
-      </c>
       <c s="1" r="L149">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M149">
         <v>0.0</v>
       </c>
       <c s="1" r="N149">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O149">
         <v>0.0</v>
@@ -8595,19 +8634,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F150">
-        <v>24466.0</v>
+        <v>3289.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -8622,16 +8661,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K150">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L150">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M150">
         <v>0.0</v>
       </c>
       <c s="1" r="N150">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O150">
         <v>0.0</v>
@@ -8642,19 +8681,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F151">
-        <v>3289.0</v>
+        <v>1656.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -8692,13 +8731,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F152">
         <v>1656.0</v>
@@ -8736,19 +8775,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F153">
-        <v>1656.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -8783,19 +8822,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B154">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F154">
-        <v>245.0</v>
+        <v>5551.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -8830,19 +8869,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F155">
-        <v>5551.0</v>
+        <v>9007.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -8857,7 +8896,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K155">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L155">
         <v>0.0</v>
@@ -8877,19 +8916,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F156">
-        <v>9007.0</v>
+        <v>524.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -8904,7 +8943,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K156">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L156">
         <v>0.0</v>
@@ -8924,19 +8963,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F157">
-        <v>524.0</v>
+        <v>1222.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -8954,7 +8993,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L157">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M157">
         <v>0.0</v>
@@ -8971,19 +9010,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F158">
-        <v>1222.0</v>
+        <v>3757.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -9001,7 +9040,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L158">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M158">
         <v>0.0</v>
@@ -9021,13 +9060,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D159">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F159">
         <v>3757.0</v>
@@ -9065,19 +9104,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B160">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D160">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F160">
-        <v>3757.0</v>
+        <v>5217.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -9092,7 +9131,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K160">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L160">
         <v>0.0</v>
@@ -9112,19 +9151,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B161">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F161">
-        <v>5217.0</v>
+        <v>1587.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -9139,7 +9178,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K161">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L161">
         <v>0.0</v>
@@ -9159,19 +9198,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B162">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F162">
-        <v>1587.0</v>
+        <v>559.0</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -9206,19 +9245,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B163">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F163">
-        <v>559.0</v>
+        <v>308.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -9253,19 +9292,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F164">
-        <v>308.0</v>
+        <v>2104.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -9300,19 +9339,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F165">
-        <v>2104.0</v>
+        <v>249.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -9336,10 +9375,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N165">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O165">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="166">
@@ -9347,19 +9386,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B166">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F166">
-        <v>249.0</v>
+        <v>566.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -9383,10 +9422,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N166">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O166">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -9394,19 +9433,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F167">
-        <v>566.0</v>
+        <v>744.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -9441,19 +9480,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B168">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F168">
-        <v>744.0</v>
+        <v>360.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -9477,7 +9516,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N168">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O168">
         <v>0.0</v>
@@ -9488,19 +9527,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B169">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F169">
-        <v>360.0</v>
+        <v>3679.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -9518,13 +9557,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L169">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M169">
         <v>0.0</v>
       </c>
       <c s="1" r="N169">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O169">
         <v>0.0</v>
@@ -9535,19 +9574,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F170">
-        <v>3679.0</v>
+        <v>341.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -9565,7 +9604,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L170">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M170">
         <v>0.0</v>
@@ -9582,16 +9621,16 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B171">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F171">
         <v>341.0</v>
@@ -9629,19 +9668,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B172">
-        <v>459259.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F172">
-        <v>341.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -9676,19 +9715,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B173">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F173">
-        <v>98.0</v>
+        <v>777.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -9723,19 +9762,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F174">
-        <v>777.0</v>
+        <v>131.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -9770,19 +9809,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F175">
-        <v>131.0</v>
+        <v>6353.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -9817,19 +9856,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B176">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F176">
-        <v>6353.0</v>
+        <v>3755.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -9864,19 +9903,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F177">
-        <v>3755.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -9911,19 +9950,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F178">
-        <v>69.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -9958,19 +9997,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B179">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F179">
-        <v>40.0</v>
+        <v>1385.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -10005,19 +10044,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B180">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F180">
-        <v>1385.0</v>
+        <v>12918.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -10026,13 +10065,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I180">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J180">
         <v>0.0</v>
       </c>
       <c s="1" r="K180">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L180">
         <v>0.0</v>
@@ -10055,13 +10094,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D181">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F181">
         <v>12918.0</v>
@@ -10073,13 +10112,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I181">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J181">
         <v>0.0</v>
       </c>
       <c s="1" r="K181">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L181">
         <v>0.0</v>
@@ -10102,13 +10141,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D182">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F182">
         <v>12918.0</v>
@@ -10149,13 +10188,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D183">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F183">
         <v>12918.0</v>
@@ -10196,13 +10235,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D184">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F184">
         <v>12918.0</v>
@@ -10243,13 +10282,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D185">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F185">
         <v>12918.0</v>
@@ -10276,7 +10315,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O185">
         <v>0.0</v>
@@ -10290,13 +10329,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D186">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F186">
         <v>12918.0</v>
@@ -10323,7 +10362,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N186">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O186">
         <v>0.0</v>
@@ -10337,13 +10376,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D187">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F187">
         <v>12918.0</v>
@@ -10384,13 +10423,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D188">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F188">
         <v>12918.0</v>
@@ -10431,13 +10470,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D189">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F189">
         <v>12918.0</v>
@@ -10478,13 +10517,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D190">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F190">
         <v>12918.0</v>
@@ -10522,19 +10561,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B191">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D191">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F191">
-        <v>12918.0</v>
+        <v>65.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -10569,19 +10608,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B192">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F192">
-        <v>65.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -10616,19 +10655,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B193">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F193">
-        <v>16.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -10663,19 +10702,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F194">
-        <v>760.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -10710,19 +10749,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233286.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F195">
-        <v>44.0</v>
+        <v>2251.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -10757,19 +10796,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B196">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F196">
-        <v>2251.0</v>
+        <v>161.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -10804,19 +10843,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B197">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F197">
-        <v>161.0</v>
+        <v>1990.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -10851,19 +10890,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B198">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F198">
-        <v>1990.0</v>
+        <v>11086.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -10887,7 +10926,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N198">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O198">
         <v>0.0</v>
@@ -10898,19 +10937,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F199">
-        <v>11086.0</v>
+        <v>31308.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -10919,22 +10958,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I199">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J199">
         <v>0.0</v>
       </c>
       <c s="1" r="K199">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="L199">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M199">
         <v>0.0</v>
       </c>
       <c s="1" r="N199">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O199">
         <v>0.0</v>
@@ -10948,13 +10987,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D200">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F200">
         <v>31308.0</v>
@@ -10966,22 +11005,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I200">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J200">
         <v>0.0</v>
       </c>
       <c s="1" r="K200">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L200">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M200">
         <v>0.0</v>
       </c>
       <c s="1" r="N200">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O200">
         <v>0.0</v>
@@ -10995,13 +11034,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D201">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F201">
         <v>31308.0</v>
@@ -11042,13 +11081,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D202">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F202">
         <v>31308.0</v>
@@ -11089,13 +11128,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D203">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F203">
         <v>31308.0</v>
@@ -11107,25 +11146,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I203">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J203">
         <v>0.0</v>
       </c>
       <c s="1" r="K203">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L203">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M203">
         <v>0.0</v>
       </c>
       <c s="1" r="N203">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O203">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="204">
@@ -11136,13 +11175,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D204">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F204">
         <v>31308.0</v>
@@ -11154,25 +11193,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I204">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J204">
         <v>0.0</v>
       </c>
       <c s="1" r="K204">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L204">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M204">
         <v>0.0</v>
       </c>
       <c s="1" r="N204">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O204">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -11183,13 +11222,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D205">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F205">
         <v>31308.0</v>
@@ -11227,19 +11266,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B206">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D206">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F206">
-        <v>31308.0</v>
+        <v>233.0</v>
       </c>
       <c s="1" r="G206">
         <v>0.0</v>
@@ -11263,7 +11302,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N206">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O206">
         <v>0.0</v>
@@ -11274,19 +11313,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B207">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D207">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F207">
-        <v>233.0</v>
+        <v>273.0</v>
       </c>
       <c s="1" r="G207">
         <v>0.0</v>
@@ -11301,7 +11340,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K207">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L207">
         <v>0.0</v>
@@ -11310,7 +11349,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N207">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O207">
         <v>0.0</v>
@@ -11324,13 +11363,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D208">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F208">
         <v>273.0</v>
@@ -11348,7 +11387,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K208">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L208">
         <v>0.0</v>
@@ -11368,19 +11407,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B209">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D209">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F209">
-        <v>273.0</v>
+        <v>5203.0</v>
       </c>
       <c s="1" r="G209">
         <v>0.0</v>
@@ -11418,13 +11457,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D210">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F210">
         <v>5203.0</v>
@@ -11462,19 +11501,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B211">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D211">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F211">
-        <v>5203.0</v>
+        <v>692.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -11509,19 +11548,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B212">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F212">
-        <v>692.0</v>
+        <v>480.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -11556,19 +11595,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B213">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F213">
-        <v>480.0</v>
+        <v>4405.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -11603,19 +11642,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B214">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F214">
-        <v>4405.0</v>
+        <v>40.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -11650,19 +11689,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B215">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F215">
-        <v>40.0</v>
+        <v>24391.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -11671,22 +11710,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I215">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J215">
         <v>0.0</v>
       </c>
       <c s="1" r="K215">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="L215">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M215">
         <v>0.0</v>
       </c>
       <c s="1" r="N215">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="O215">
         <v>0.0</v>
@@ -11700,13 +11739,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D216">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F216">
         <v>24391.0</v>
@@ -11718,22 +11757,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I216">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J216">
         <v>0.0</v>
       </c>
       <c s="1" r="K216">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L216">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M216">
         <v>0.0</v>
       </c>
       <c s="1" r="N216">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O216">
         <v>0.0</v>
@@ -11747,13 +11786,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D217">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F217">
         <v>24391.0</v>
@@ -11794,13 +11833,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D218">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F218">
         <v>24391.0</v>
@@ -11818,7 +11857,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L218">
         <v>0.0</v>
@@ -11827,10 +11866,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O218">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="219">
@@ -11841,13 +11880,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D219">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F219">
         <v>24391.0</v>
@@ -11865,7 +11904,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K219">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L219">
         <v>0.0</v>
@@ -11874,10 +11913,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N219">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O219">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -11888,13 +11927,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D220">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F220">
         <v>24391.0</v>
@@ -11921,7 +11960,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N220">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O220">
         <v>0.0</v>
@@ -11932,19 +11971,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B221">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D221">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F221">
-        <v>24391.0</v>
+        <v>57.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -11968,7 +12007,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N221">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O221">
         <v>0.0</v>
@@ -11979,19 +12018,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B222">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F222">
-        <v>57.0</v>
+        <v>32027.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -12000,22 +12039,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I222">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="J222">
         <v>0.0</v>
       </c>
       <c s="1" r="K222">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c s="1" r="L222">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c s="1" r="M222">
         <v>0.0</v>
       </c>
       <c s="1" r="N222">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="O222">
         <v>0.0</v>
@@ -12029,13 +12068,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D223">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F223">
         <v>32027.0</v>
@@ -12047,22 +12086,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I223">
+        <v>1.0</v>
+      </c>
+      <c s="1" r="J223">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K223">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="L223">
         <v>6.0</v>
       </c>
-      <c s="1" r="J223">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K223">
-        <v>27.0</v>
-      </c>
-      <c s="1" r="L223">
-        <v>22.0</v>
-      </c>
       <c s="1" r="M223">
         <v>0.0</v>
       </c>
       <c s="1" r="N223">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="O223">
         <v>0.0</v>
@@ -12073,19 +12112,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B224">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D224">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F224">
-        <v>32027.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -12094,22 +12133,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J224">
         <v>0.0</v>
       </c>
       <c s="1" r="K224">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L224">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M224">
         <v>0.0</v>
       </c>
       <c s="1" r="N224">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O224">
         <v>0.0</v>
@@ -12120,19 +12159,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B225">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D225">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F225">
-        <v>2948.0</v>
+        <v>586.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -12167,19 +12206,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D226">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F226">
-        <v>586.0</v>
+        <v>1569.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
@@ -12214,19 +12253,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B227">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F227">
-        <v>1569.0</v>
+        <v>31006.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
@@ -12264,13 +12303,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D228">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F228">
         <v>31006.0</v>
@@ -12311,13 +12350,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D229">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F229">
         <v>31006.0</v>
@@ -12358,13 +12397,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D230">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F230">
         <v>31006.0</v>
@@ -12405,13 +12444,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D231">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F231">
         <v>31006.0</v>
@@ -12452,13 +12491,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D232">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F232">
         <v>31006.0</v>
@@ -12499,13 +12538,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D233">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F233">
         <v>31006.0</v>
@@ -12546,13 +12585,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D234">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F234">
         <v>31006.0</v>
@@ -12593,13 +12632,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D235">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F235">
         <v>31006.0</v>
@@ -12640,13 +12679,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D236">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F236">
         <v>31006.0</v>
@@ -12687,13 +12726,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D237">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F237">
         <v>31006.0</v>
@@ -12731,19 +12770,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B238">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D238">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F238">
-        <v>31006.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G238">
         <v>0.0</v>
@@ -12778,19 +12817,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B239">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D239">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F239">
-        <v>140.0</v>
+        <v>72.0</v>
       </c>
       <c s="1" r="G239">
         <v>0.0</v>
@@ -12825,19 +12864,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B240">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D240">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F240">
-        <v>72.0</v>
+        <v>5634.0</v>
       </c>
       <c s="1" r="G240">
         <v>0.0</v>
@@ -12872,19 +12911,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B241">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D241">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F241">
-        <v>5634.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G241">
         <v>0.0</v>
@@ -12919,19 +12958,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B242">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D242">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F242">
-        <v>1667.0</v>
+        <v>555.0</v>
       </c>
       <c s="1" r="G242">
         <v>0.0</v>
@@ -12966,19 +13005,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B243">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D243">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F243">
-        <v>555.0</v>
+        <v>1279.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
@@ -13013,19 +13052,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B244">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D244">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F244">
-        <v>1279.0</v>
+        <v>8778.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
@@ -13060,19 +13099,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B245">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F245">
-        <v>8778.0</v>
+        <v>135.0</v>
       </c>
       <c s="1" r="G245">
         <v>0.0</v>
@@ -13087,7 +13126,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K245">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L245">
         <v>0.0</v>
@@ -13107,19 +13146,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B246">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D246">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F246">
-        <v>135.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G246">
         <v>0.0</v>
@@ -13134,10 +13173,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K246">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L246">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M246">
         <v>0.0</v>
@@ -13154,19 +13193,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B247">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D247">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F247">
-        <v>45.0</v>
+        <v>2173.0</v>
       </c>
       <c s="1" r="G247">
         <v>0.0</v>
@@ -13181,10 +13220,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K247">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L247">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M247">
         <v>0.0</v>
@@ -13201,19 +13240,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B248">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D248">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F248">
-        <v>2173.0</v>
+        <v>94.0</v>
       </c>
       <c s="1" r="G248">
         <v>0.0</v>
@@ -13248,19 +13287,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D249">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F249">
-        <v>94.0</v>
+        <v>523.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -13295,19 +13334,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B250">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F250">
-        <v>523.0</v>
+        <v>520.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -13322,10 +13361,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K250">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L250">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M250">
         <v>0.0</v>
@@ -13342,19 +13381,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B251">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F251">
-        <v>520.0</v>
+        <v>226.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -13369,10 +13408,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K251">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L251">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M251">
         <v>0.0</v>
@@ -13389,19 +13428,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F252">
-        <v>226.0</v>
+        <v>4068.0</v>
       </c>
       <c s="1" r="G252">
         <v>0.0</v>
@@ -13428,53 +13467,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O252">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c s="1" r="A253">
-        <v>2010.0</v>
-      </c>
-      <c s="1" r="B253">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C253">
-        <v>516</v>
-      </c>
-      <c s="1" r="D253">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E253">
-        <v>517</v>
-      </c>
-      <c s="1" r="F253">
-        <v>4068.0</v>
-      </c>
-      <c s="1" r="G253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N253">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O253">
         <v>0.0</v>
       </c>
     </row>
